--- a/data/2020-08-08/tn.xlsx
+++ b/data/2020-08-08/tn.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_AGE_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1409</definedName>
+    <definedName name="ALL_AGE_FINAL">'ALL_AGE_FINAL'!$A$1:$H$1419</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1409"/>
+  <dimension ref="A1:H1419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -38543,6 +38543,286 @@
         <v>0</v>
       </c>
     </row>
+    <row outlineLevel="0" r="1410">
+      <c r="A1410" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1410" s="0" t="inlineStr">
+        <is>
+          <t>0-10 years</t>
+        </is>
+      </c>
+      <c r="C1410" s="0">
+        <v>5777</v>
+      </c>
+      <c r="D1410" s="0">
+        <v>4.79081146079529E-02</v>
+      </c>
+      <c r="E1410" s="0">
+        <v>101</v>
+      </c>
+      <c r="F1410" s="0">
+        <v>5.60177481974487E-02</v>
+      </c>
+      <c r="G1410" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1410" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1411">
+      <c r="A1411" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1411" s="0" t="inlineStr">
+        <is>
+          <t>11-20 years</t>
+        </is>
+      </c>
+      <c r="C1411" s="0">
+        <v>13922</v>
+      </c>
+      <c r="D1411" s="0">
+        <v>0.115453829249077</v>
+      </c>
+      <c r="E1411" s="0">
+        <v>224</v>
+      </c>
+      <c r="F1411" s="0">
+        <v>0.124237382140876</v>
+      </c>
+      <c r="G1411" s="0">
+        <v>1</v>
+      </c>
+      <c r="H1411" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1412">
+      <c r="A1412" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1412" s="0" t="inlineStr">
+        <is>
+          <t>21-30 years</t>
+        </is>
+      </c>
+      <c r="C1412" s="0">
+        <v>27635</v>
+      </c>
+      <c r="D1412" s="0">
+        <v>0.229174441265497</v>
+      </c>
+      <c r="E1412" s="0">
+        <v>348</v>
+      </c>
+      <c r="F1412" s="0">
+        <v>0.193011647254576</v>
+      </c>
+      <c r="G1412" s="0">
+        <v>12</v>
+      </c>
+      <c r="H1412" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1413">
+      <c r="A1413" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1413" s="0" t="inlineStr">
+        <is>
+          <t>31-40 years</t>
+        </is>
+      </c>
+      <c r="C1413" s="0">
+        <v>21750</v>
+      </c>
+      <c r="D1413" s="0">
+        <v>0.180370692872248</v>
+      </c>
+      <c r="E1413" s="0">
+        <v>286</v>
+      </c>
+      <c r="F1413" s="0">
+        <v>0.158624514697726</v>
+      </c>
+      <c r="G1413" s="0">
+        <v>24</v>
+      </c>
+      <c r="H1413" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1414">
+      <c r="A1414" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1414" s="0" t="inlineStr">
+        <is>
+          <t>41-50 years</t>
+        </is>
+      </c>
+      <c r="C1414" s="0">
+        <v>18626</v>
+      </c>
+      <c r="D1414" s="0">
+        <v>0.154463656341999</v>
+      </c>
+      <c r="E1414" s="0">
+        <v>249</v>
+      </c>
+      <c r="F1414" s="0">
+        <v>0.138103161397671</v>
+      </c>
+      <c r="G1414" s="0">
+        <v>67</v>
+      </c>
+      <c r="H1414" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1415">
+      <c r="A1415" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1415" s="0" t="inlineStr">
+        <is>
+          <t>51-60 years</t>
+        </is>
+      </c>
+      <c r="C1415" s="0">
+        <v>15137</v>
+      </c>
+      <c r="D1415" s="0">
+        <v>0.125529709333665</v>
+      </c>
+      <c r="E1415" s="0">
+        <v>238</v>
+      </c>
+      <c r="F1415" s="0">
+        <v>0.132002218524681</v>
+      </c>
+      <c r="G1415" s="0">
+        <v>128</v>
+      </c>
+      <c r="H1415" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1416">
+      <c r="A1416" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1416" s="0" t="inlineStr">
+        <is>
+          <t>61-70 years</t>
+        </is>
+      </c>
+      <c r="C1416" s="0">
+        <v>9578</v>
+      </c>
+      <c r="D1416" s="0">
+        <v>7.94294481071443E-02</v>
+      </c>
+      <c r="E1416" s="0">
+        <v>185</v>
+      </c>
+      <c r="F1416" s="0">
+        <v>0.102606766500277</v>
+      </c>
+      <c r="G1416" s="0">
+        <v>245</v>
+      </c>
+      <c r="H1416" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1417">
+      <c r="A1417" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1417" s="0" t="inlineStr">
+        <is>
+          <t>71-80 years</t>
+        </is>
+      </c>
+      <c r="C1417" s="0">
+        <v>5128</v>
+      </c>
+      <c r="D1417" s="0">
+        <v>4.25260189907534E-02</v>
+      </c>
+      <c r="E1417" s="0">
+        <v>112</v>
+      </c>
+      <c r="F1417" s="0">
+        <v>6.21186910704382E-02</v>
+      </c>
+      <c r="G1417" s="0">
+        <v>349</v>
+      </c>
+      <c r="H1417" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1418">
+      <c r="A1418" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1418" s="0" t="inlineStr">
+        <is>
+          <t>81+ years</t>
+        </is>
+      </c>
+      <c r="C1418" s="0">
+        <v>2820</v>
+      </c>
+      <c r="D1418" s="0">
+        <v>2.33859932827466E-02</v>
+      </c>
+      <c r="E1418" s="0">
+        <v>62</v>
+      </c>
+      <c r="F1418" s="0">
+        <v>3.43871325568497E-02</v>
+      </c>
+      <c r="G1418" s="0">
+        <v>385</v>
+      </c>
+      <c r="H1418" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1419">
+      <c r="A1419" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1419" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C1419" s="0">
+        <v>212</v>
+      </c>
+      <c r="D1419" s="0">
+        <v>1.7580959489157E-03</v>
+      </c>
+      <c r="E1419" s="0">
+        <v>-2</v>
+      </c>
+      <c r="F1419" s="0">
+        <v>-1.10926234054354E-03</v>
+      </c>
+      <c r="G1419" s="0">
+        <v>0</v>
+      </c>
+      <c r="H1419" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
